--- a/data/trans_dic/P54_A_5_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P54_A_5_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra preocupada por sufrir problemas con los estudios o ya le ha ocurrido</t>
+          <t>Población que se encuentra preocupada por sufrir problemas con los estudios o ya le ha ocurrido (tasa de respuesta: 93,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>14,36%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,63%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,51%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,61%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,27</t>
+          <t>6,81; 26,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,51</t>
+          <t>0,0; 3,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,05</t>
+          <t>4,21; 20,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,1</t>
+          <t>0,0; 3,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>0,31; 3,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>7,53; 20,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>0,0; 2,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0,17; 1,79</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,75%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>5,65; 25,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>0,0; 2,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>0,0; 1,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>7,31; 15,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>0,3; 3,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,46; 2,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>7,38; 15,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0,31; 2,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,34; 1,42</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,88%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,06%</t>
         </is>
       </c>
     </row>
@@ -905,54 +906,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>5,74; 15,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>0,0; 2,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>0,2; 1,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>8,63; 17,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>0,0; 2,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>0,44; 3,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>8,11; 15,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,0; 1,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0,5; 2,14</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,32%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,41%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1016,172 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>5,02; 9,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0,35; 6,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,0; 2,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>8,91; 14,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,0; 1,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0,0; 1,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>7,38; 10,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>0,4; 3,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>0,13; 1,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8,51%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,01%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,44%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11,42%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,72%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1,01%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9,95%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,86%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6,72; 11,6</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,34; 2,87</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,18; 0,86</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>9,62; 13,45</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,26; 1,31</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0,57; 1,67</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>8,61; 11,54</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,45; 1,84</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,45; 1,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
@@ -1072,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra preocupada por sufrir problemas con los estudios o ya le ha ocurrido (tasa de respuesta: 93,98%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>17996</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2110</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>14010</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2294</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>6894</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>32006</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4404</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>6894</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>8536; 32718</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 11454</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5490; 26265</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12857</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1922; 18967</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>19261; 51536</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15689</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1903; 20088</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>53944</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3792</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4475</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>52159</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>12452</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>13400</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>106104</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>16244</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>17874</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>28549; 127269</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 19791</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 18161</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>35940; 74520</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2989; 30387</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5588; 29240</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>73570; 157983</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>5823; 39763</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>8082; 34021</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>33380</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2769</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6042</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>55785</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3231</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>12641</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>89165</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>18682</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>20005; 54716</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15964</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1676; 16209</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>37362; 76693</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16266</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4056; 29863</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>63403; 120810</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 20745</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8800; 37776</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>97067</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>25464</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>4219</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>145316</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>7137</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2168</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>242383</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>32600</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>6387</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>70222; 138998</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4940; 91972</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 17406</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>114460; 184819</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 24414</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 10702</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>198161; 290122</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>10915; 90315</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1977; 19318</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>202387</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>34135</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>14736</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>267270</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>25114</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>35102</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>469657</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>59249</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>49838</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>159899; 275881</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>11478; 96775</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>6131; 29133</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>225079; 314641</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>9241; 45965</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>19671; 57992</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>406418; 544579</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>31166; 126797</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>30724; 75395</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>